--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_qft_16.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_qft_16.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N301"/>
+  <dimension ref="A1:N302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1926031112670898</v>
+        <v>0.2711830139160156</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003686904907226562</v>
+        <v>0.003725767135620117</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.005634069442749023</v>
+        <v>0.01023006439208984</v>
       </c>
     </row>
     <row r="8">
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.2883279833251079</v>
+        <v>0.2883206022232133</v>
       </c>
     </row>
     <row r="296">
@@ -2626,116 +2626,126 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>60969.86727255895</v>
+        <v>61008.26727255895</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>41</v>
+        <v>0.9974911413233941</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>228</v>
+        <v>41</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.2211551666259766</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>0.3164000511169434</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B301" t="inlineStr">
+      <c r="B302" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr">
+      <c r="C302" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D301" t="inlineStr">
+      <c r="D302" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E301" t="inlineStr">
+      <c r="E302" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F301" t="inlineStr">
+      <c r="F302" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G301" t="inlineStr">
+      <c r="G302" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
+      <c r="H302" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I301" t="inlineStr">
+      <c r="I302" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J301" t="inlineStr">
+      <c r="J302" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K301" t="inlineStr">
+      <c r="K302" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L301" t="inlineStr">
+      <c r="L302" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M301" t="inlineStr">
+      <c r="M302" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N301" t="inlineStr">
+      <c r="N302" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_qft_16.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_qft_16.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2711830139160156</v>
+        <v>0.0007112026214599609</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003725767135620117</v>
+        <v>0.0005598068237304688</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01023006439208984</v>
+        <v>0.02322888374328613</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 1), (1, 1), (1, 0), (1, 2), (2, 1), (0, 0), (0, 2), (0, 3), (2, 0), (2, 2), (3, 0), (3, 1), (3, 2), (1, 3), (3, 3), (2, 3)]</t>
+          <t>[[0, 1], [1, 1], [1, 0], [1, 2], [2, 1], [0, 0], [0, 2], [0, 3], [2, 0], [2, 2], [3, 0], [3, 1], [3, 2], [1, 3], [3, 3], [2, 3]]</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[(3, 1), (1, 0), (2, 2), (0, 1), (1, 3), (0, 3), (0, 2), (1, 2), (1, 1), (2, 1), (2, 0), (3, 0), (3, 2), (2, 3), (3, 3), (0, 0)]</t>
+          <t>[[3, 1], [1, 0], [2, 2], [0, 1], [1, 3], [0, 3], [0, 2], [1, 2], [1, 1], [2, 1], [2, 0], [3, 0], [3, 2], [2, 3], [3, 3], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>[(1, 3), (2, 3), (2, 2), (2, 1), (3, 0), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1), (3, 2), (1, 2), (3, 3), (0, 3)]</t>
+          <t>[[1, 3], [2, 3], [2, 2], [2, 1], [3, 0], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1], [3, 2], [1, 2], [3, 3], [0, 3]]</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>[(0, 3), (3, 0), (3, 1), (3, 2), (1, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (1, 2), (2, 3), (3, 3)]</t>
+          <t>[[0, 3], [3, 0], [3, 1], [3, 2], [1, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [1, 2], [2, 3], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>[(0, 3), (3, 1), (3, 2), (2, 3), (1, 3), (3, 3), (2, 2), (3, 0), (2, 0), (1, 2), (0, 1), (0, 0), (0, 2), (1, 1), (1, 0), (2, 1)]</t>
+          <t>[[0, 3], [3, 1], [3, 2], [2, 3], [1, 3], [3, 3], [2, 2], [3, 0], [2, 0], [1, 2], [0, 1], [0, 0], [0, 2], [1, 1], [1, 0], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>[(1, 2), (3, 1), (3, 2), (2, 3), (1, 3), (3, 3), (2, 2), (3, 0), (2, 0), (1, 0), (2, 1), (0, 3), (0, 0), (1, 1), (0, 1), (0, 2)]</t>
+          <t>[[1, 2], [3, 1], [3, 2], [2, 3], [1, 3], [3, 3], [2, 2], [3, 0], [2, 0], [1, 0], [2, 1], [0, 3], [0, 0], [1, 1], [0, 1], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.3164000511169434</v>
+        <v>0.04964709281921387</v>
       </c>
     </row>
     <row r="302">
